--- a/assets/excel/2021_6-2-1.xlsx
+++ b/assets/excel/2021_6-2-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C16E93-A35E-496F-8E92-9DC29CECE1A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F8DE25D-7B4C-433B-A9E3-393025DA8581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{A9CF1043-8D78-4266-A2D8-CA6B2B5820DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="14010" xr2:uid="{A9CF1043-8D78-4266-A2D8-CA6B2B5820DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -289,12 +289,6 @@
     <t>1) SGB II + XII. SGB II: ALG II und Sozialgeld. Von der Bundesagentur für Arbeit wurde Mitte 2011 die SGB-II-Statistik revidiert, und zwar rückwirkend ab 2007. Es kann daher zu geringfügigen Abweichungen zu Veröffentlichungen der BA kommen. SGB XII: Hilfe zum Lebensunterhalt außerhalb von Einrichtungen (HLU, nach Wohnort); Grundsicherung im Alter und bei Erwerbsminderung nach dem SGB XII nach Wohnort der Bedarfsgemeinschaft, in- und außerhalb von Einrichtungen; Regelleistungen nach dem Asylbewerberleistungsgesetz (örtliche Träger, nach Wohnort); ohne Kriegsopferfürsorge.</t>
   </si>
   <si>
-    <t>2) einschließlich "Keine Zuordnung möglich"</t>
-  </si>
-  <si>
-    <t>3) einschließlich "ohne Angabe", "ungeklärt", "staatenlos", "unbekanntes Ausland"</t>
-  </si>
-  <si>
     <t>Quellen: Leistungen nach SGB II: Statistik der Bundesagentur für Arbeit, alle weiteren Daten: Statistische Ämter des Bundes und der Länder. Eigene Berechnung LSN.</t>
   </si>
   <si>
@@ -308,6 +302,12 @@
   </si>
   <si>
     <t>https://www.integrationsmonitoring.niedersachsen.de</t>
+  </si>
+  <si>
+    <t>2) Insgesamt einschließlich "Keine Zuordnung möglich"</t>
+  </si>
+  <si>
+    <t>3) Ausländerinnen und Ausländer einschließlich "ohne Angabe", "ungeklärt", "staatenlos", "unbekanntes Ausland"</t>
   </si>
 </sst>
 </file>
@@ -10276,7 +10276,7 @@
     <row r="328" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="14"/>
       <c r="C328" s="29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D328" s="18"/>
       <c r="E328" s="18"/>
@@ -10288,7 +10288,7 @@
     </row>
     <row r="329" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="29" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D329" s="18"/>
       <c r="E329" s="18"/>
@@ -10310,7 +10310,7 @@
     </row>
     <row r="331" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C331" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D331" s="21"/>
       <c r="E331" s="21"/>
@@ -10323,22 +10323,22 @@
     <row r="332" spans="2:10" s="20" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="333" spans="2:10" s="20" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="C333" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="334" spans="2:10" s="20" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="C334" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="335" spans="2:10" s="20" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="C335" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="336" spans="2:10" s="20" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
       <c r="C336" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
